--- a/FishLandings/household groups/statistics/Carnivorous (%)_output.xlsx
+++ b/FishLandings/household groups/statistics/Carnivorous (%)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>42119.729345</v>
+        <v>60368.859649</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>53.64931</v>
+        <v>91.814448</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>10771.595525</v>
+        <v>17251.628704</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6.860071</v>
+        <v>13.118922</v>
       </c>
       <c r="E3">
-        <v>0.001285</v>
+        <v>3e-06</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>175075.869689</v>
+        <v>218293.109073</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-3.762263</v>
+        <v>-3.131749</v>
       </c>
       <c r="H5">
-        <v>-15.9994</v>
+        <v>-12.428582</v>
       </c>
       <c r="I5">
-        <v>8.474875000000001</v>
+        <v>6.165084</v>
       </c>
       <c r="J5">
-        <v>0.748696</v>
+        <v>0.707555</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>-17.400643</v>
+        <v>-17.217715</v>
       </c>
       <c r="H6">
-        <v>-30.577449</v>
+        <v>-26.982542</v>
       </c>
       <c r="I6">
-        <v>-4.223837</v>
+        <v>-7.452889</v>
       </c>
       <c r="J6">
-        <v>0.005862</v>
+        <v>0.000124</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>-13.638381</v>
+        <v>-14.085966</v>
       </c>
       <c r="H7">
-        <v>-23.600183</v>
+        <v>-21.428464</v>
       </c>
       <c r="I7">
-        <v>-3.676578</v>
+        <v>-6.743469</v>
       </c>
       <c r="J7">
-        <v>0.004052</v>
+        <v>2.6e-05</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Carnivorous (%)_output.xlsx
+++ b/FishLandings/household groups/statistics/Carnivorous (%)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>60368.859649</v>
+        <v>42119.729345</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>91.814448</v>
+        <v>53.64931</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>17251.628704</v>
+        <v>10771.595525</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>13.118922</v>
+        <v>6.860071</v>
       </c>
       <c r="E3">
-        <v>3e-06</v>
+        <v>0.001285</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>218293.109073</v>
+        <v>175075.869689</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-3.131749</v>
+        <v>-3.762263</v>
       </c>
       <c r="H5">
-        <v>-12.428582</v>
+        <v>-15.9994</v>
       </c>
       <c r="I5">
-        <v>6.165084</v>
+        <v>8.474875000000001</v>
       </c>
       <c r="J5">
-        <v>0.707555</v>
+        <v>0.748696</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>-17.217715</v>
+        <v>-17.400643</v>
       </c>
       <c r="H6">
-        <v>-26.982542</v>
+        <v>-30.577449</v>
       </c>
       <c r="I6">
-        <v>-7.452889</v>
+        <v>-4.223837</v>
       </c>
       <c r="J6">
-        <v>0.000124</v>
+        <v>0.005862</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>-14.085966</v>
+        <v>-13.638381</v>
       </c>
       <c r="H7">
-        <v>-21.428464</v>
+        <v>-23.600183</v>
       </c>
       <c r="I7">
-        <v>-6.743469</v>
+        <v>-3.676578</v>
       </c>
       <c r="J7">
-        <v>2.6e-05</v>
+        <v>0.004052</v>
       </c>
     </row>
   </sheetData>
